--- a/gummy/gummy/ブック 5.xlsx
+++ b/gummy/gummy/ブック 5.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23416"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A977187A-6667-4536-B829-A59E7C1F099A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\GUMMY\gummy\gummy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,13 +30,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -78,7 +89,37 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -408,14 +449,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:F28"/>
+      <selection activeCell="AE2" sqref="AE2:AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="4" width="2.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.625" bestFit="1" customWidth="1"/>
@@ -424,7 +465,7 @@
     <col min="25" max="25" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -522,7 +563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -620,7 +661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -718,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -816,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -914,7 +955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1012,7 +1053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1110,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1208,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1306,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1404,7 +1445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1502,7 +1543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1600,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1698,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1796,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1894,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1992,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -2090,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -2188,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -2286,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -2384,7 +2425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -2482,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -2580,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -2678,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -2776,7 +2817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -2874,7 +2915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -2972,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -3070,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -3168,7 +3209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -3266,7 +3307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -3364,7 +3405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -3462,7 +3503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -3561,16 +3602,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AF32">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>